--- a/docs/Language Waves/wave6.xlsx
+++ b/docs/Language Waves/wave6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="19140" windowHeight="7356"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="19140" windowHeight="7356" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="en_au" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">en_uk!$A$2:$E$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fr_fr!$A$2:$F$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ko_kr!$A$2:$E$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pt_br!$A$2:$F$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">zh_cn!$A$2:$E$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pt_br!$A$2:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">zh_cn!$A$2:$E$92</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="568">
   <si>
     <t>http://www.cisco.com/web/ANZ/ordering/index.html</t>
   </si>
@@ -669,9 +669,6 @@
     <t>http://www.cisco.com/web/BR/produtos/storage/products.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/mobile/global/br/suporte/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BR/educacao/educacao_eventos.html</t>
   </si>
   <si>
@@ -748,9 +745,6 @@
   </si>
   <si>
     <t>featured-case-studies-webvar9</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/cisco/web/CN/support/index.html</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/CN/learnings/index.html</t>
@@ -2139,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -2157,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2174,7 +2168,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2185,7 +2179,7 @@
         <v>81</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2196,7 +2190,7 @@
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2207,7 +2201,7 @@
         <v>83</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2224,7 +2218,7 @@
         <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2238,7 +2232,7 @@
         <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2255,7 +2249,7 @@
         <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2272,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2289,7 +2283,7 @@
         <v>88</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2306,7 +2300,7 @@
         <v>88</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2323,7 +2317,7 @@
         <v>88</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2340,7 +2334,7 @@
         <v>88</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2357,7 +2351,7 @@
         <v>88</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2374,7 +2368,7 @@
         <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2391,7 +2385,7 @@
         <v>88</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2408,7 +2402,7 @@
         <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2425,7 +2419,7 @@
         <v>88</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2442,7 +2436,7 @@
         <v>88</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2453,13 +2447,13 @@
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2476,7 +2470,7 @@
         <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2493,7 +2487,7 @@
         <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2510,7 +2504,7 @@
         <v>88</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2527,7 +2521,7 @@
         <v>88</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2544,7 +2538,7 @@
         <v>88</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2555,13 +2549,13 @@
         <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2578,7 +2572,7 @@
         <v>88</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2595,7 +2589,7 @@
         <v>88</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2603,13 +2597,13 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2626,7 +2620,7 @@
         <v>88</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2643,7 +2637,7 @@
         <v>88</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2660,7 +2654,7 @@
         <v>88</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2677,7 +2671,7 @@
         <v>88</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2694,7 +2688,7 @@
         <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2711,7 +2705,7 @@
         <v>88</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2722,13 +2716,13 @@
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2739,13 +2733,13 @@
         <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2759,7 +2753,7 @@
         <v>117</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2773,7 +2767,7 @@
         <v>117</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2790,7 +2784,7 @@
         <v>88</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2807,7 +2801,7 @@
         <v>88</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2824,7 +2818,7 @@
         <v>88</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2841,7 +2835,7 @@
         <v>88</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2858,7 +2852,7 @@
         <v>88</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2875,7 +2869,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2892,7 +2886,7 @@
         <v>88</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2909,7 +2903,7 @@
         <v>88</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2926,7 +2920,7 @@
         <v>88</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2940,7 +2934,7 @@
         <v>86</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2957,7 +2951,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2974,7 +2968,7 @@
         <v>86</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2991,7 +2985,7 @@
         <v>86</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3008,7 +3002,7 @@
         <v>86</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3025,7 +3019,7 @@
         <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3042,7 +3036,7 @@
         <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3059,7 +3053,7 @@
         <v>86</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3076,7 +3070,7 @@
         <v>86</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3093,7 +3087,7 @@
         <v>86</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3110,7 +3104,7 @@
         <v>86</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3127,7 +3121,7 @@
         <v>86</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3144,7 +3138,7 @@
         <v>86</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -3161,7 +3155,7 @@
         <v>86</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3178,7 +3172,7 @@
         <v>86</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -3195,7 +3189,7 @@
         <v>86</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3212,7 +3206,7 @@
         <v>86</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -3229,7 +3223,7 @@
         <v>86</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -3246,7 +3240,7 @@
         <v>86</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -3263,7 +3257,7 @@
         <v>86</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -3280,7 +3274,7 @@
         <v>86</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -3297,7 +3291,7 @@
         <v>86</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -3314,7 +3308,7 @@
         <v>86</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3331,7 +3325,7 @@
         <v>86</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3348,7 +3342,7 @@
         <v>86</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -3365,7 +3359,7 @@
         <v>86</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3382,7 +3376,7 @@
         <v>86</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3399,7 +3393,7 @@
         <v>86</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3416,7 +3410,7 @@
         <v>86</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -3433,7 +3427,7 @@
         <v>86</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -3450,7 +3444,7 @@
         <v>86</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -3488,10 +3482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3505,10 +3499,10 @@
         <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3516,13 +3510,10 @@
         <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3530,60 +3521,66 @@
         <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>215</v>
+      <c r="A4" t="s">
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>158</v>
+      <c r="A6" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3594,13 +3591,13 @@
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3611,13 +3608,13 @@
         <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3628,13 +3625,13 @@
         <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3645,316 +3642,316 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>221</v>
+      <c r="A12" t="s">
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>88</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
         <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
         <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
         <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
         <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>566</v>
       </c>
       <c r="D28" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>175</v>
+      <c r="A29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>568</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3965,132 +3962,129 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>223</v>
+      <c r="A31" t="s">
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
         <v>88</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
         <v>88</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>567</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" t="s">
-        <v>112</v>
+      <c r="A37" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>569</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4098,27 +4092,30 @@
         <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
         <v>117</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4129,13 +4126,13 @@
         <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4146,13 +4143,13 @@
         <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
         <v>88</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -4163,13 +4160,13 @@
         <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -4177,16 +4174,16 @@
         <v>229</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
         <v>88</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -4194,7 +4191,7 @@
         <v>230</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
         <v>120</v>
@@ -4203,7 +4200,7 @@
         <v>88</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4214,13 +4211,13 @@
         <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
         <v>88</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -4231,13 +4228,13 @@
         <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
         <v>88</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4248,569 +4245,552 @@
         <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
         <v>88</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" t="s">
-        <v>124</v>
+      <c r="A48" t="s">
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
         <v>86</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
         <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
         <v>86</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
         <v>86</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
         <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
         <v>86</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
         <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
         <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
         <v>86</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
         <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
         <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
         <v>86</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
         <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
         <v>86</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
         <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
         <v>86</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
         <v>86</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
         <v>142</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D64" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
         <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
         <v>86</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
         <v>86</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B68" t="s">
         <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
         <v>86</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
         <v>86</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
         <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
         <v>86</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
         <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
         <v>86</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D73" t="s">
         <v>86</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
         <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
         <v>86</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
         <v>86</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76" t="s">
         <v>86</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
         <v>86</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
         <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
         <v>86</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B79" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" t="s">
-        <v>154</v>
-      </c>
-      <c r="D79" t="s">
-        <v>86</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
     <hyperlink ref="A8" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
     <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A12" r:id="rId9"/>
+    <hyperlink ref="A29" r:id="rId9"/>
     <hyperlink ref="A30" r:id="rId10"/>
-    <hyperlink ref="A31" r:id="rId11"/>
+    <hyperlink ref="A37" r:id="rId11"/>
     <hyperlink ref="A38" r:id="rId12"/>
     <hyperlink ref="A39" r:id="rId13"/>
     <hyperlink ref="A40" r:id="rId14"/>
@@ -4821,7 +4801,6 @@
     <hyperlink ref="A45" r:id="rId19"/>
     <hyperlink ref="A46" r:id="rId20"/>
     <hyperlink ref="A47" r:id="rId21"/>
-    <hyperlink ref="A48" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4829,10 +4808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4845,733 +4824,736 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>245</v>
+      <c r="A6" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>319</v>
+      <c r="A12" t="s">
+        <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>88</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
         <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
         <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
         <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
         <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>261</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>566</v>
       </c>
       <c r="D28" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>329</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>568</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
         <v>88</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
         <v>88</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>567</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>569</v>
+        <v>331</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>270</v>
+      <c r="A39" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="B39" t="s">
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>335</v>
-      </c>
-      <c r="D40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
         <v>117</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s">
         <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
         <v>88</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>324</v>
+      <c r="A44" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="B44" t="s">
         <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>325</v>
+      <c r="A45" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
         <v>88</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
         <v>120</v>
@@ -5580,281 +5562,281 @@
         <v>88</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s">
         <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
         <v>88</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s">
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
         <v>88</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s">
         <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B50" t="s">
-        <v>124</v>
+      <c r="A50" t="s">
+        <v>269</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="B51" t="s">
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
         <v>86</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s">
         <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
         <v>86</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
         <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s">
         <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
         <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s">
         <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="D55" t="s">
         <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s">
         <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
         <v>86</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B58" t="s">
         <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="D58" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s">
         <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
         <v>86</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
         <v>86</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
         <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
         <v>86</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B62" t="s">
         <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="D62" t="s">
         <v>86</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s">
         <v>133</v>
@@ -5866,530 +5848,513 @@
         <v>86</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B64" t="s">
         <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s">
         <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
         <v>86</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
         <v>86</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
         <v>86</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s">
         <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
         <v>86</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B70" t="s">
         <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
         <v>86</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
         <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
         <v>86</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
         <v>86</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D74" t="s">
         <v>86</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s">
         <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D75" t="s">
         <v>86</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
         <v>86</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B77" t="s">
         <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
         <v>86</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
         <v>86</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s">
         <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
         <v>86</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
         <v>86</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
         <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
         <v>86</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
         <v>152</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
         <v>86</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
         <v>152</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
         <v>86</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="D85" t="s">
         <v>86</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D86" t="s">
         <v>86</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B87" t="s">
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>337</v>
       </c>
       <c r="D87" t="s">
         <v>86</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D88" t="s">
         <v>86</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s">
         <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D89" t="s">
         <v>86</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B90" t="s">
         <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>341</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
         <v>86</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="D91" t="s">
         <v>86</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s">
         <v>155</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D92" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>313</v>
-      </c>
-      <c r="B93" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" t="s">
-        <v>154</v>
-      </c>
-      <c r="D93" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
     <hyperlink ref="A8" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
     <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A12" r:id="rId9"/>
+    <hyperlink ref="A39" r:id="rId9"/>
     <hyperlink ref="A40" r:id="rId10"/>
     <hyperlink ref="A41" r:id="rId11"/>
     <hyperlink ref="A42" r:id="rId12"/>
@@ -6400,7 +6365,6 @@
     <hyperlink ref="A47" r:id="rId17"/>
     <hyperlink ref="A48" r:id="rId18"/>
     <hyperlink ref="A49" r:id="rId19"/>
-    <hyperlink ref="A50" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6422,18 +6386,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -6442,59 +6406,59 @@
         <v>80</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -6503,12 +6467,12 @@
         <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -6520,12 +6484,12 @@
         <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -6537,12 +6501,12 @@
         <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -6554,12 +6518,12 @@
         <v>88</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -6571,12 +6535,12 @@
         <v>88</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
@@ -6588,12 +6552,12 @@
         <v>88</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
@@ -6605,12 +6569,12 @@
         <v>88</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
@@ -6622,12 +6586,12 @@
         <v>88</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
@@ -6639,12 +6603,12 @@
         <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
@@ -6656,12 +6620,12 @@
         <v>88</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
@@ -6673,12 +6637,12 @@
         <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
@@ -6690,12 +6654,12 @@
         <v>88</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" t="s">
         <v>100</v>
@@ -6707,29 +6671,29 @@
         <v>88</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
         <v>100</v>
@@ -6741,12 +6705,12 @@
         <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -6758,12 +6722,12 @@
         <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B23" t="s">
         <v>105</v>
@@ -6775,12 +6739,12 @@
         <v>88</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B24" t="s">
         <v>105</v>
@@ -6792,12 +6756,12 @@
         <v>88</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B25" t="s">
         <v>105</v>
@@ -6809,29 +6773,29 @@
         <v>88</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
@@ -6843,12 +6807,12 @@
         <v>88</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B28" t="s">
         <v>105</v>
@@ -6860,26 +6824,26 @@
         <v>88</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C29" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -6891,12 +6855,12 @@
         <v>88</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -6908,12 +6872,12 @@
         <v>88</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B32" t="s">
         <v>112</v>
@@ -6925,12 +6889,12 @@
         <v>88</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -6942,12 +6906,12 @@
         <v>88</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -6959,46 +6923,46 @@
         <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C37" t="s">
         <v>116</v>
@@ -7007,12 +6971,12 @@
         <v>117</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C38" t="s">
         <v>118</v>
@@ -7021,12 +6985,12 @@
         <v>117</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B39" t="s">
         <v>119</v>
@@ -7038,12 +7002,12 @@
         <v>88</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B40" t="s">
         <v>119</v>
@@ -7055,12 +7019,12 @@
         <v>88</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s">
         <v>119</v>
@@ -7072,29 +7036,29 @@
         <v>88</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B43" t="s">
         <v>123</v>
@@ -7106,12 +7070,12 @@
         <v>88</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B44" t="s">
         <v>124</v>
@@ -7123,12 +7087,12 @@
         <v>88</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s">
         <v>124</v>
@@ -7140,12 +7104,12 @@
         <v>88</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s">
         <v>124</v>
@@ -7157,12 +7121,12 @@
         <v>88</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s">
         <v>124</v>
@@ -7174,12 +7138,12 @@
         <v>88</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C48" t="s">
         <v>128</v>
@@ -7188,12 +7152,12 @@
         <v>86</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s">
         <v>129</v>
@@ -7205,12 +7169,12 @@
         <v>86</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s">
         <v>129</v>
@@ -7222,12 +7186,12 @@
         <v>86</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s">
         <v>132</v>
@@ -7239,12 +7203,12 @@
         <v>86</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s">
         <v>132</v>
@@ -7256,12 +7220,12 @@
         <v>86</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -7273,12 +7237,12 @@
         <v>86</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -7290,12 +7254,12 @@
         <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -7307,12 +7271,12 @@
         <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s">
         <v>135</v>
@@ -7324,12 +7288,12 @@
         <v>86</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
@@ -7341,12 +7305,12 @@
         <v>86</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s">
         <v>135</v>
@@ -7358,12 +7322,12 @@
         <v>86</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s">
         <v>135</v>
@@ -7375,12 +7339,12 @@
         <v>86</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s">
         <v>135</v>
@@ -7392,12 +7356,12 @@
         <v>86</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s">
         <v>135</v>
@@ -7409,12 +7373,12 @@
         <v>86</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s">
         <v>142</v>
@@ -7426,12 +7390,12 @@
         <v>86</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s">
         <v>142</v>
@@ -7443,12 +7407,12 @@
         <v>86</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -7460,12 +7424,12 @@
         <v>86</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s">
         <v>145</v>
@@ -7477,12 +7441,12 @@
         <v>86</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B66" t="s">
         <v>145</v>
@@ -7494,12 +7458,12 @@
         <v>86</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s">
         <v>146</v>
@@ -7511,12 +7475,12 @@
         <v>86</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B68" t="s">
         <v>146</v>
@@ -7528,12 +7492,12 @@
         <v>86</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B69" t="s">
         <v>149</v>
@@ -7545,12 +7509,12 @@
         <v>86</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B70" t="s">
         <v>149</v>
@@ -7562,12 +7526,12 @@
         <v>86</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B71" t="s">
         <v>152</v>
@@ -7579,12 +7543,12 @@
         <v>86</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B72" t="s">
         <v>152</v>
@@ -7596,12 +7560,12 @@
         <v>86</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
@@ -7613,12 +7577,12 @@
         <v>86</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s">
         <v>84</v>
@@ -7630,12 +7594,12 @@
         <v>86</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B75" t="s">
         <v>155</v>
@@ -7647,12 +7611,12 @@
         <v>86</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B76" t="s">
         <v>155</v>
@@ -7664,7 +7628,7 @@
         <v>86</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -7693,19 +7657,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -7714,59 +7678,59 @@
         <v>80</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -7775,12 +7739,12 @@
         <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -7792,12 +7756,12 @@
         <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -7809,12 +7773,12 @@
         <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -7826,12 +7790,12 @@
         <v>88</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -7843,12 +7807,12 @@
         <v>88</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
@@ -7860,12 +7824,12 @@
         <v>88</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
@@ -7877,12 +7841,12 @@
         <v>88</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
@@ -7894,12 +7858,12 @@
         <v>88</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
@@ -7911,12 +7875,12 @@
         <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
@@ -7928,12 +7892,12 @@
         <v>88</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
@@ -7945,12 +7909,12 @@
         <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
@@ -7962,12 +7926,12 @@
         <v>88</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" t="s">
         <v>100</v>
@@ -7979,29 +7943,29 @@
         <v>88</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
         <v>100</v>
@@ -8013,12 +7977,12 @@
         <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -8030,12 +7994,12 @@
         <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B23" t="s">
         <v>105</v>
@@ -8047,12 +8011,12 @@
         <v>88</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B24" t="s">
         <v>105</v>
@@ -8064,12 +8028,12 @@
         <v>88</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B25" t="s">
         <v>105</v>
@@ -8081,29 +8045,29 @@
         <v>88</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
@@ -8115,12 +8079,12 @@
         <v>88</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B28" t="s">
         <v>105</v>
@@ -8132,26 +8096,26 @@
         <v>88</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C29" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -8163,12 +8127,12 @@
         <v>88</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -8180,12 +8144,12 @@
         <v>88</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B32" t="s">
         <v>112</v>
@@ -8197,12 +8161,12 @@
         <v>88</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -8214,12 +8178,12 @@
         <v>88</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -8231,46 +8195,46 @@
         <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C37" t="s">
         <v>116</v>
@@ -8279,12 +8243,12 @@
         <v>117</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C38" t="s">
         <v>118</v>
@@ -8293,12 +8257,12 @@
         <v>117</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B39" t="s">
         <v>119</v>
@@ -8310,12 +8274,12 @@
         <v>88</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B40" t="s">
         <v>119</v>
@@ -8327,12 +8291,12 @@
         <v>88</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s">
         <v>119</v>
@@ -8344,29 +8308,29 @@
         <v>88</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B43" t="s">
         <v>123</v>
@@ -8378,12 +8342,12 @@
         <v>88</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B44" t="s">
         <v>124</v>
@@ -8395,12 +8359,12 @@
         <v>88</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s">
         <v>124</v>
@@ -8412,12 +8376,12 @@
         <v>88</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s">
         <v>124</v>
@@ -8429,12 +8393,12 @@
         <v>88</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s">
         <v>124</v>
@@ -8446,12 +8410,12 @@
         <v>88</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C48" t="s">
         <v>128</v>
@@ -8460,12 +8424,12 @@
         <v>86</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s">
         <v>129</v>
@@ -8477,12 +8441,12 @@
         <v>86</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s">
         <v>129</v>
@@ -8494,12 +8458,12 @@
         <v>86</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s">
         <v>132</v>
@@ -8511,12 +8475,12 @@
         <v>86</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s">
         <v>132</v>
@@ -8528,12 +8492,12 @@
         <v>86</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -8545,12 +8509,12 @@
         <v>86</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -8562,12 +8526,12 @@
         <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -8579,12 +8543,12 @@
         <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s">
         <v>135</v>
@@ -8596,12 +8560,12 @@
         <v>86</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
@@ -8613,12 +8577,12 @@
         <v>86</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s">
         <v>135</v>
@@ -8630,12 +8594,12 @@
         <v>86</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s">
         <v>135</v>
@@ -8647,12 +8611,12 @@
         <v>86</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s">
         <v>135</v>
@@ -8664,12 +8628,12 @@
         <v>86</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s">
         <v>135</v>
@@ -8681,12 +8645,12 @@
         <v>86</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s">
         <v>142</v>
@@ -8698,12 +8662,12 @@
         <v>86</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s">
         <v>142</v>
@@ -8715,12 +8679,12 @@
         <v>86</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -8732,12 +8696,12 @@
         <v>86</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s">
         <v>145</v>
@@ -8749,12 +8713,12 @@
         <v>86</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B66" t="s">
         <v>145</v>
@@ -8766,12 +8730,12 @@
         <v>86</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s">
         <v>146</v>
@@ -8783,12 +8747,12 @@
         <v>86</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B68" t="s">
         <v>146</v>
@@ -8800,12 +8764,12 @@
         <v>86</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B69" t="s">
         <v>149</v>
@@ -8817,12 +8781,12 @@
         <v>86</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B70" t="s">
         <v>149</v>
@@ -8834,12 +8798,12 @@
         <v>86</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B71" t="s">
         <v>152</v>
@@ -8851,12 +8815,12 @@
         <v>86</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B72" t="s">
         <v>152</v>
@@ -8868,12 +8832,12 @@
         <v>86</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
@@ -8885,12 +8849,12 @@
         <v>86</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s">
         <v>84</v>
@@ -8902,12 +8866,12 @@
         <v>86</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B75" t="s">
         <v>155</v>
@@ -8919,12 +8883,12 @@
         <v>86</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B76" t="s">
         <v>155</v>
@@ -8936,7 +8900,7 @@
         <v>86</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -8966,18 +8930,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -8986,59 +8950,59 @@
         <v>80</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -9047,12 +9011,12 @@
         <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>95</v>
@@ -9064,12 +9028,12 @@
         <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>95</v>
@@ -9081,12 +9045,12 @@
         <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>100</v>
@@ -9098,12 +9062,12 @@
         <v>88</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
@@ -9115,12 +9079,12 @@
         <v>88</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
         <v>105</v>
@@ -9132,12 +9096,12 @@
         <v>88</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
         <v>105</v>
@@ -9149,26 +9113,26 @@
         <v>88</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B15" t="s">
         <v>107</v>
@@ -9180,12 +9144,12 @@
         <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s">
         <v>107</v>
@@ -9197,12 +9161,12 @@
         <v>88</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
         <v>110</v>
@@ -9214,12 +9178,12 @@
         <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>112</v>
@@ -9231,12 +9195,12 @@
         <v>88</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
         <v>112</v>
@@ -9248,12 +9212,12 @@
         <v>88</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C20" t="s">
         <v>116</v>
@@ -9262,12 +9226,12 @@
         <v>117</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
@@ -9276,12 +9240,12 @@
         <v>117</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
@@ -9293,12 +9257,12 @@
         <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B23" t="s">
         <v>119</v>
@@ -9310,12 +9274,12 @@
         <v>88</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B24" t="s">
         <v>119</v>
@@ -9327,29 +9291,29 @@
         <v>88</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
         <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B26" t="s">
         <v>124</v>
@@ -9361,12 +9325,12 @@
         <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B27" t="s">
         <v>124</v>
@@ -9378,12 +9342,12 @@
         <v>88</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B28" t="s">
         <v>124</v>
@@ -9395,12 +9359,12 @@
         <v>88</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B29" t="s">
         <v>124</v>
@@ -9412,12 +9376,12 @@
         <v>88</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C30" t="s">
         <v>128</v>
@@ -9426,12 +9390,12 @@
         <v>86</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B31" t="s">
         <v>129</v>
@@ -9443,12 +9407,12 @@
         <v>86</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B32" t="s">
         <v>129</v>
@@ -9460,12 +9424,12 @@
         <v>86</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B33" t="s">
         <v>132</v>
@@ -9477,12 +9441,12 @@
         <v>86</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B34" t="s">
         <v>132</v>
@@ -9494,12 +9458,12 @@
         <v>86</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B35" t="s">
         <v>133</v>
@@ -9511,12 +9475,12 @@
         <v>86</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
@@ -9528,12 +9492,12 @@
         <v>86</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B37" t="s">
         <v>135</v>
@@ -9545,12 +9509,12 @@
         <v>86</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B38" t="s">
         <v>135</v>
@@ -9562,12 +9526,12 @@
         <v>86</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B39" t="s">
         <v>142</v>
@@ -9579,12 +9543,12 @@
         <v>86</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B40" t="s">
         <v>142</v>
@@ -9596,12 +9560,12 @@
         <v>86</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B41" t="s">
         <v>143</v>
@@ -9613,12 +9577,12 @@
         <v>86</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B42" t="s">
         <v>145</v>
@@ -9630,12 +9594,12 @@
         <v>86</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B43" t="s">
         <v>145</v>
@@ -9647,12 +9611,12 @@
         <v>86</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B44" t="s">
         <v>146</v>
@@ -9664,12 +9628,12 @@
         <v>86</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B45" t="s">
         <v>146</v>
@@ -9681,12 +9645,12 @@
         <v>86</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B46" t="s">
         <v>149</v>
@@ -9698,12 +9662,12 @@
         <v>86</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B47" t="s">
         <v>149</v>
@@ -9715,12 +9679,12 @@
         <v>86</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B48" t="s">
         <v>151</v>
@@ -9732,12 +9696,12 @@
         <v>86</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B49" t="s">
         <v>151</v>
@@ -9749,12 +9713,12 @@
         <v>86</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s">
         <v>152</v>
@@ -9766,12 +9730,12 @@
         <v>86</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s">
         <v>152</v>
@@ -9783,12 +9747,12 @@
         <v>86</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
@@ -9800,12 +9764,12 @@
         <v>86</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s">
         <v>84</v>
@@ -9817,12 +9781,12 @@
         <v>86</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B54" t="s">
         <v>155</v>
@@ -9834,12 +9798,12 @@
         <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s">
         <v>155</v>
@@ -9851,7 +9815,7 @@
         <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -9876,18 +9840,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -9896,59 +9860,59 @@
         <v>80</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C5" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -9957,12 +9921,12 @@
         <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -9974,12 +9938,12 @@
         <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -9991,12 +9955,12 @@
         <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -10008,12 +9972,12 @@
         <v>88</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -10025,12 +9989,12 @@
         <v>88</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
@@ -10042,12 +10006,12 @@
         <v>88</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
@@ -10059,12 +10023,12 @@
         <v>88</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
@@ -10076,12 +10040,12 @@
         <v>88</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
@@ -10093,12 +10057,12 @@
         <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
         <v>100</v>
@@ -10110,12 +10074,12 @@
         <v>88</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
@@ -10127,12 +10091,12 @@
         <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
@@ -10144,29 +10108,29 @@
         <v>88</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
@@ -10178,12 +10142,12 @@
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
         <v>100</v>
@@ -10195,12 +10159,12 @@
         <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s">
         <v>105</v>
@@ -10212,12 +10176,12 @@
         <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s">
         <v>105</v>
@@ -10229,12 +10193,12 @@
         <v>88</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s">
         <v>105</v>
@@ -10246,29 +10210,29 @@
         <v>88</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B25" t="s">
         <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
@@ -10280,12 +10244,12 @@
         <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
@@ -10297,26 +10261,26 @@
         <v>88</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D28" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B29" t="s">
         <v>107</v>
@@ -10328,12 +10292,12 @@
         <v>88</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -10345,12 +10309,12 @@
         <v>88</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
@@ -10362,12 +10326,12 @@
         <v>88</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B32" t="s">
         <v>112</v>
@@ -10379,12 +10343,12 @@
         <v>88</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -10396,12 +10360,12 @@
         <v>88</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -10413,97 +10377,97 @@
         <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B39" t="s">
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C40" t="s">
         <v>116</v>
@@ -10512,12 +10476,12 @@
         <v>117</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C41" t="s">
         <v>118</v>
@@ -10526,12 +10490,12 @@
         <v>117</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
@@ -10543,12 +10507,12 @@
         <v>88</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B43" t="s">
         <v>119</v>
@@ -10560,12 +10524,12 @@
         <v>88</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B44" t="s">
         <v>119</v>
@@ -10577,29 +10541,29 @@
         <v>88</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B45" t="s">
         <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
         <v>88</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B46" t="s">
         <v>123</v>
@@ -10611,12 +10575,12 @@
         <v>88</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B47" t="s">
         <v>124</v>
@@ -10628,12 +10592,12 @@
         <v>88</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B48" t="s">
         <v>124</v>
@@ -10645,12 +10609,12 @@
         <v>88</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B49" t="s">
         <v>124</v>
@@ -10662,12 +10626,12 @@
         <v>88</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B50" t="s">
         <v>124</v>
@@ -10679,12 +10643,12 @@
         <v>88</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C51" t="s">
         <v>128</v>
@@ -10693,12 +10657,12 @@
         <v>86</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B52" t="s">
         <v>129</v>
@@ -10710,12 +10674,12 @@
         <v>86</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B53" t="s">
         <v>129</v>
@@ -10727,29 +10691,29 @@
         <v>86</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B54" t="s">
         <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D54" t="s">
         <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B55" t="s">
         <v>129</v>
@@ -10761,29 +10725,29 @@
         <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B56" t="s">
         <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D56" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B57" t="s">
         <v>132</v>
@@ -10795,12 +10759,12 @@
         <v>86</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B58" t="s">
         <v>132</v>
@@ -10812,29 +10776,29 @@
         <v>86</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B59" t="s">
         <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D59" t="s">
         <v>86</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s">
         <v>132</v>
@@ -10846,12 +10810,12 @@
         <v>86</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B61" t="s">
         <v>133</v>
@@ -10863,12 +10827,12 @@
         <v>86</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s">
         <v>133</v>
@@ -10880,46 +10844,46 @@
         <v>86</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B63" t="s">
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D63" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s">
         <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s">
         <v>133</v>
@@ -10931,12 +10895,12 @@
         <v>86</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B66" t="s">
         <v>135</v>
@@ -10948,12 +10912,12 @@
         <v>86</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
@@ -10965,12 +10929,12 @@
         <v>86</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
@@ -10982,12 +10946,12 @@
         <v>86</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B69" t="s">
         <v>135</v>
@@ -10999,12 +10963,12 @@
         <v>86</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B70" t="s">
         <v>135</v>
@@ -11016,12 +10980,12 @@
         <v>86</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B71" t="s">
         <v>135</v>
@@ -11033,12 +10997,12 @@
         <v>86</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B72" t="s">
         <v>142</v>
@@ -11050,12 +11014,12 @@
         <v>86</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B73" t="s">
         <v>142</v>
@@ -11067,12 +11031,12 @@
         <v>86</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B74" t="s">
         <v>143</v>
@@ -11084,12 +11048,12 @@
         <v>86</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B75" t="s">
         <v>145</v>
@@ -11101,12 +11065,12 @@
         <v>86</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B76" t="s">
         <v>145</v>
@@ -11118,12 +11082,12 @@
         <v>86</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B77" t="s">
         <v>146</v>
@@ -11135,12 +11099,12 @@
         <v>86</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B78" t="s">
         <v>146</v>
@@ -11152,12 +11116,12 @@
         <v>86</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B79" t="s">
         <v>149</v>
@@ -11169,12 +11133,12 @@
         <v>86</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B80" t="s">
         <v>149</v>
@@ -11186,12 +11150,12 @@
         <v>86</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s">
         <v>151</v>
@@ -11203,12 +11167,12 @@
         <v>86</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s">
         <v>151</v>
@@ -11220,12 +11184,12 @@
         <v>86</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B83" t="s">
         <v>152</v>
@@ -11237,12 +11201,12 @@
         <v>86</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s">
         <v>152</v>
@@ -11254,12 +11218,12 @@
         <v>86</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B85" t="s">
         <v>152</v>
@@ -11271,12 +11235,12 @@
         <v>86</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
@@ -11288,12 +11252,12 @@
         <v>86</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B87" t="s">
         <v>84</v>
@@ -11305,63 +11269,63 @@
         <v>86</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D88" t="s">
         <v>86</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B89" t="s">
         <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D89" t="s">
         <v>86</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s">
         <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D90" t="s">
         <v>86</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s">
         <v>84</v>
@@ -11373,12 +11337,12 @@
         <v>86</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B92" t="s">
         <v>155</v>
@@ -11390,12 +11354,12 @@
         <v>86</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B93" t="s">
         <v>155</v>
@@ -11407,7 +11371,7 @@
         <v>86</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Language Waves/wave6.xlsx
+++ b/docs/Language Waves/wave6.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration\OVWMigration\docs\Language Waves\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="19140" windowHeight="7356" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19140" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="en_au" sheetId="1" r:id="rId1"/>
@@ -23,12 +28,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pt_br!$A$2:$F$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">zh_cn!$A$2:$E$92</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="568">
   <si>
     <t>http://www.cisco.com/web/ANZ/ordering/index.html</t>
   </si>
@@ -1840,6 +1845,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1887,7 +1895,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1922,7 +1930,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2133,20 +2141,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -2171,7 +2179,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -2193,7 +2201,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2204,24 +2212,21 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -2235,7 +2240,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -2252,7 +2257,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -2269,7 +2274,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2286,7 +2291,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -2303,7 +2308,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -2320,7 +2325,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2337,7 +2342,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2371,7 +2376,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +2410,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -2456,7 +2461,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2473,7 +2478,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2541,7 +2546,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -2558,7 +2563,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2592,7 +2597,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
@@ -2606,7 +2611,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -2623,7 +2628,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -2640,7 +2645,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2691,7 +2696,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -2708,7 +2713,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -2725,7 +2730,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -2756,7 +2761,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -2770,7 +2775,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -2787,7 +2792,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -2821,7 +2826,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>73</v>
       </c>
@@ -2838,7 +2843,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -2855,7 +2860,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -2872,7 +2877,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
@@ -2889,7 +2894,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
@@ -2906,7 +2911,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
@@ -2923,7 +2928,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -2971,7 +2976,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -2988,7 +2993,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -3005,7 +3010,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -3022,7 +3027,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>32</v>
       </c>
@@ -3039,7 +3044,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -3056,7 +3061,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -3141,7 +3146,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -3175,7 +3180,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -3192,7 +3197,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -3226,7 +3231,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -3243,7 +3248,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -3277,7 +3282,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -3311,7 +3316,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -3345,7 +3350,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -3379,7 +3384,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -3413,7 +3418,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -3430,7 +3435,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -3484,17 +3489,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -3505,7 +3510,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>213</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>214</v>
       </c>
@@ -3527,7 +3532,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -3538,7 +3543,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -3552,7 +3557,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>215</v>
       </c>
@@ -3566,7 +3571,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>217</v>
       </c>
@@ -3600,7 +3605,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>218</v>
       </c>
@@ -3617,7 +3622,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>219</v>
       </c>
@@ -3634,7 +3639,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>220</v>
       </c>
@@ -3651,7 +3656,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -3685,7 +3690,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -3719,7 +3724,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -3753,7 +3758,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -3770,7 +3775,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>166</v>
       </c>
@@ -3787,7 +3792,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -3804,7 +3809,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -3821,7 +3826,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>169</v>
       </c>
@@ -3838,7 +3843,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -3855,7 +3860,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -3872,7 +3877,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -3889,7 +3894,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -3906,7 +3911,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>174</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -3937,7 +3942,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>221</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>222</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>176</v>
       </c>
@@ -3988,7 +3993,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>177</v>
       </c>
@@ -4005,7 +4010,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -4039,7 +4044,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -4056,7 +4061,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -4073,7 +4078,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>223</v>
       </c>
@@ -4087,7 +4092,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>224</v>
       </c>
@@ -4101,7 +4106,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>225</v>
       </c>
@@ -4118,7 +4123,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>226</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>227</v>
       </c>
@@ -4152,7 +4157,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>228</v>
       </c>
@@ -4169,7 +4174,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>229</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>230</v>
       </c>
@@ -4203,7 +4208,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>231</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>232</v>
       </c>
@@ -4237,7 +4242,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>233</v>
       </c>
@@ -4254,7 +4259,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -4268,7 +4273,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -4285,7 +4290,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>184</v>
       </c>
@@ -4302,7 +4307,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>185</v>
       </c>
@@ -4319,7 +4324,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -4336,7 +4341,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -4353,7 +4358,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>188</v>
       </c>
@@ -4370,7 +4375,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -4387,7 +4392,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -4404,7 +4409,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>191</v>
       </c>
@@ -4421,7 +4426,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>192</v>
       </c>
@@ -4438,7 +4443,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>193</v>
       </c>
@@ -4455,7 +4460,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>194</v>
       </c>
@@ -4472,7 +4477,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>195</v>
       </c>
@@ -4489,7 +4494,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>196</v>
       </c>
@@ -4506,7 +4511,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>197</v>
       </c>
@@ -4523,7 +4528,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -4540,7 +4545,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>199</v>
       </c>
@@ -4557,7 +4562,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -4591,7 +4596,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -4625,7 +4630,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -4642,7 +4647,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>205</v>
       </c>
@@ -4659,7 +4664,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>207</v>
       </c>
@@ -4693,7 +4698,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>208</v>
       </c>
@@ -4710,7 +4715,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>209</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -4744,7 +4749,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>211</v>
       </c>
@@ -4761,7 +4766,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -4814,15 +4819,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>241</v>
       </c>
@@ -4833,7 +4838,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>239</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>240</v>
       </c>
@@ -4855,7 +4860,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -4866,7 +4871,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>243</v>
       </c>
@@ -4880,7 +4885,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>312</v>
       </c>
@@ -4894,7 +4899,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>313</v>
       </c>
@@ -4911,7 +4916,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>314</v>
       </c>
@@ -4928,7 +4933,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>315</v>
       </c>
@@ -4945,7 +4950,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>316</v>
       </c>
@@ -4962,7 +4967,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>317</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>244</v>
       </c>
@@ -4996,7 +5001,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -5013,7 +5018,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -5047,7 +5052,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -5064,7 +5069,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -5081,7 +5086,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -5115,7 +5120,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -5132,7 +5137,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -5149,7 +5154,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>254</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>255</v>
       </c>
@@ -5183,7 +5188,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -5217,7 +5222,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>258</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>259</v>
       </c>
@@ -5251,7 +5256,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>260</v>
       </c>
@@ -5265,7 +5270,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -5282,7 +5287,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -5299,7 +5304,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>261</v>
       </c>
@@ -5316,7 +5321,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>262</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -5350,7 +5355,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>264</v>
       </c>
@@ -5367,7 +5372,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>265</v>
       </c>
@@ -5384,7 +5389,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>266</v>
       </c>
@@ -5401,7 +5406,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>267</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -5435,7 +5440,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>318</v>
       </c>
@@ -5452,7 +5457,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>319</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>320</v>
       </c>
@@ -5480,7 +5485,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>321</v>
       </c>
@@ -5497,7 +5502,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>322</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>323</v>
       </c>
@@ -5531,7 +5536,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>324</v>
       </c>
@@ -5548,7 +5553,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>325</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>326</v>
       </c>
@@ -5582,7 +5587,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>327</v>
       </c>
@@ -5599,7 +5604,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>328</v>
       </c>
@@ -5616,7 +5621,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>269</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>270</v>
       </c>
@@ -5647,7 +5652,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>271</v>
       </c>
@@ -5664,7 +5669,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>272</v>
       </c>
@@ -5681,7 +5686,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>273</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>275</v>
       </c>
@@ -5732,7 +5737,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>276</v>
       </c>
@@ -5749,7 +5754,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>277</v>
       </c>
@@ -5766,7 +5771,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>278</v>
       </c>
@@ -5783,7 +5788,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>279</v>
       </c>
@@ -5800,7 +5805,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>280</v>
       </c>
@@ -5817,7 +5822,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>281</v>
       </c>
@@ -5834,7 +5839,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -5851,7 +5856,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>283</v>
       </c>
@@ -5868,7 +5873,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>284</v>
       </c>
@@ -5885,7 +5890,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>285</v>
       </c>
@@ -5902,7 +5907,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>286</v>
       </c>
@@ -5919,7 +5924,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>287</v>
       </c>
@@ -5936,7 +5941,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -5953,7 +5958,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>289</v>
       </c>
@@ -5970,7 +5975,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>290</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>291</v>
       </c>
@@ -6004,7 +6009,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>292</v>
       </c>
@@ -6021,7 +6026,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>293</v>
       </c>
@@ -6038,7 +6043,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -6055,7 +6060,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -6072,7 +6077,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -6089,7 +6094,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>297</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>298</v>
       </c>
@@ -6123,7 +6128,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>299</v>
       </c>
@@ -6140,7 +6145,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>300</v>
       </c>
@@ -6157,7 +6162,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>301</v>
       </c>
@@ -6174,7 +6179,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>302</v>
       </c>
@@ -6191,7 +6196,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>303</v>
       </c>
@@ -6208,7 +6213,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -6225,7 +6230,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>305</v>
       </c>
@@ -6242,7 +6247,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>306</v>
       </c>
@@ -6259,7 +6264,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>307</v>
       </c>
@@ -6276,7 +6281,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>308</v>
       </c>
@@ -6293,7 +6298,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>309</v>
       </c>
@@ -6310,7 +6315,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>310</v>
       </c>
@@ -6327,7 +6332,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>311</v>
       </c>
@@ -6378,13 +6383,13 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -6395,7 +6400,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>394</v>
       </c>
@@ -6409,7 +6414,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>414</v>
       </c>
@@ -6420,7 +6425,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>415</v>
       </c>
@@ -6431,7 +6436,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -6442,7 +6447,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -6456,7 +6461,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>395</v>
       </c>
@@ -6470,7 +6475,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>396</v>
       </c>
@@ -6487,7 +6492,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -6504,7 +6509,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>398</v>
       </c>
@@ -6521,7 +6526,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>399</v>
       </c>
@@ -6538,7 +6543,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>400</v>
       </c>
@@ -6555,7 +6560,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>343</v>
       </c>
@@ -6572,7 +6577,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>344</v>
       </c>
@@ -6589,7 +6594,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -6606,7 +6611,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>346</v>
       </c>
@@ -6623,7 +6628,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>347</v>
       </c>
@@ -6640,7 +6645,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>348</v>
       </c>
@@ -6657,7 +6662,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>349</v>
       </c>
@@ -6674,7 +6679,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>350</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -6708,7 +6713,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -6725,7 +6730,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>353</v>
       </c>
@@ -6742,7 +6747,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>354</v>
       </c>
@@ -6759,7 +6764,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>355</v>
       </c>
@@ -6776,7 +6781,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -6793,7 +6798,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>357</v>
       </c>
@@ -6810,7 +6815,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>358</v>
       </c>
@@ -6827,7 +6832,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>359</v>
       </c>
@@ -6841,7 +6846,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>401</v>
       </c>
@@ -6858,7 +6863,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -6875,7 +6880,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>360</v>
       </c>
@@ -6892,7 +6897,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>361</v>
       </c>
@@ -6909,7 +6914,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>362</v>
       </c>
@@ -6926,7 +6931,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>363</v>
       </c>
@@ -6943,7 +6948,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>364</v>
       </c>
@@ -6960,7 +6965,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>403</v>
       </c>
@@ -6974,7 +6979,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>404</v>
       </c>
@@ -6988,7 +6993,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -7005,7 +7010,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>406</v>
       </c>
@@ -7022,7 +7027,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>407</v>
       </c>
@@ -7039,7 +7044,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>408</v>
       </c>
@@ -7056,7 +7061,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -7073,7 +7078,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>410</v>
       </c>
@@ -7090,7 +7095,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>411</v>
       </c>
@@ -7107,7 +7112,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>412</v>
       </c>
@@ -7124,7 +7129,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -7141,7 +7146,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>365</v>
       </c>
@@ -7155,7 +7160,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>366</v>
       </c>
@@ -7172,7 +7177,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>367</v>
       </c>
@@ -7189,7 +7194,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -7206,7 +7211,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>369</v>
       </c>
@@ -7223,7 +7228,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>370</v>
       </c>
@@ -7240,7 +7245,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>371</v>
       </c>
@@ -7257,7 +7262,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>372</v>
       </c>
@@ -7274,7 +7279,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -7291,7 +7296,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>374</v>
       </c>
@@ -7308,7 +7313,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -7325,7 +7330,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>376</v>
       </c>
@@ -7342,7 +7347,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>377</v>
       </c>
@@ -7359,7 +7364,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>378</v>
       </c>
@@ -7376,7 +7381,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>379</v>
       </c>
@@ -7393,7 +7398,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>380</v>
       </c>
@@ -7410,7 +7415,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -7427,7 +7432,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -7444,7 +7449,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>383</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>384</v>
       </c>
@@ -7478,7 +7483,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>385</v>
       </c>
@@ -7495,7 +7500,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -7512,7 +7517,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>387</v>
       </c>
@@ -7529,7 +7534,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>388</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>389</v>
       </c>
@@ -7563,7 +7568,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>390</v>
       </c>
@@ -7580,7 +7585,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>391</v>
       </c>
@@ -7597,7 +7602,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>392</v>
       </c>
@@ -7614,7 +7619,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>393</v>
       </c>
@@ -7649,13 +7654,13 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -7667,7 +7672,7 @@
       </c>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>394</v>
       </c>
@@ -7681,7 +7686,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>414</v>
       </c>
@@ -7692,7 +7697,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>415</v>
       </c>
@@ -7703,7 +7708,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -7714,7 +7719,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -7728,7 +7733,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>395</v>
       </c>
@@ -7742,7 +7747,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>396</v>
       </c>
@@ -7759,7 +7764,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -7776,7 +7781,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>398</v>
       </c>
@@ -7793,7 +7798,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>399</v>
       </c>
@@ -7810,7 +7815,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>400</v>
       </c>
@@ -7827,7 +7832,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>343</v>
       </c>
@@ -7844,7 +7849,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>344</v>
       </c>
@@ -7861,7 +7866,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>346</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>347</v>
       </c>
@@ -7912,7 +7917,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>348</v>
       </c>
@@ -7929,7 +7934,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>349</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>350</v>
       </c>
@@ -7963,7 +7968,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -7980,7 +7985,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -7997,7 +8002,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>353</v>
       </c>
@@ -8014,7 +8019,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>354</v>
       </c>
@@ -8031,7 +8036,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>355</v>
       </c>
@@ -8048,7 +8053,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -8065,7 +8070,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>357</v>
       </c>
@@ -8082,7 +8087,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>358</v>
       </c>
@@ -8099,7 +8104,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>359</v>
       </c>
@@ -8113,7 +8118,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>401</v>
       </c>
@@ -8130,7 +8135,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -8147,7 +8152,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>360</v>
       </c>
@@ -8164,7 +8169,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>361</v>
       </c>
@@ -8181,7 +8186,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>362</v>
       </c>
@@ -8198,7 +8203,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>363</v>
       </c>
@@ -8215,7 +8220,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>364</v>
       </c>
@@ -8232,7 +8237,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>403</v>
       </c>
@@ -8246,7 +8251,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>404</v>
       </c>
@@ -8260,7 +8265,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -8277,7 +8282,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>406</v>
       </c>
@@ -8294,7 +8299,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>407</v>
       </c>
@@ -8311,7 +8316,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>408</v>
       </c>
@@ -8328,7 +8333,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -8345,7 +8350,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>410</v>
       </c>
@@ -8362,7 +8367,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>411</v>
       </c>
@@ -8379,7 +8384,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>412</v>
       </c>
@@ -8396,7 +8401,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -8413,7 +8418,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>365</v>
       </c>
@@ -8427,7 +8432,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>366</v>
       </c>
@@ -8444,7 +8449,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>367</v>
       </c>
@@ -8461,7 +8466,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -8478,7 +8483,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>369</v>
       </c>
@@ -8495,7 +8500,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>370</v>
       </c>
@@ -8512,7 +8517,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>371</v>
       </c>
@@ -8529,7 +8534,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>372</v>
       </c>
@@ -8546,7 +8551,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -8563,7 +8568,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>374</v>
       </c>
@@ -8580,7 +8585,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -8597,7 +8602,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>376</v>
       </c>
@@ -8614,7 +8619,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>377</v>
       </c>
@@ -8631,7 +8636,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>378</v>
       </c>
@@ -8648,7 +8653,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>379</v>
       </c>
@@ -8665,7 +8670,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>380</v>
       </c>
@@ -8682,7 +8687,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -8699,7 +8704,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -8716,7 +8721,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>383</v>
       </c>
@@ -8733,7 +8738,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>384</v>
       </c>
@@ -8750,7 +8755,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>385</v>
       </c>
@@ -8767,7 +8772,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -8784,7 +8789,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>387</v>
       </c>
@@ -8801,7 +8806,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>388</v>
       </c>
@@ -8818,7 +8823,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>389</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>390</v>
       </c>
@@ -8852,7 +8857,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>391</v>
       </c>
@@ -8869,7 +8874,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>392</v>
       </c>
@@ -8886,7 +8891,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>393</v>
       </c>
@@ -8921,14 +8926,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>416</v>
       </c>
@@ -8939,7 +8944,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -8953,7 +8958,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -8964,7 +8969,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>457</v>
       </c>
@@ -8975,7 +8980,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>417</v>
       </c>
@@ -8986,7 +8991,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>418</v>
       </c>
@@ -9000,7 +9005,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>458</v>
       </c>
@@ -9014,7 +9019,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>419</v>
       </c>
@@ -9031,7 +9036,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>420</v>
       </c>
@@ -9048,7 +9053,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>421</v>
       </c>
@@ -9065,7 +9070,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>422</v>
       </c>
@@ -9082,7 +9087,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>423</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>424</v>
       </c>
@@ -9116,7 +9121,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>425</v>
       </c>
@@ -9130,7 +9135,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>459</v>
       </c>
@@ -9147,7 +9152,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>460</v>
       </c>
@@ -9164,7 +9169,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>426</v>
       </c>
@@ -9181,7 +9186,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>427</v>
       </c>
@@ -9198,7 +9203,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>428</v>
       </c>
@@ -9215,7 +9220,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>461</v>
       </c>
@@ -9229,7 +9234,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>462</v>
       </c>
@@ -9243,7 +9248,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>463</v>
       </c>
@@ -9260,7 +9265,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>464</v>
       </c>
@@ -9277,7 +9282,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>465</v>
       </c>
@@ -9294,7 +9299,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>466</v>
       </c>
@@ -9311,7 +9316,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -9328,7 +9333,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>468</v>
       </c>
@@ -9345,7 +9350,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>469</v>
       </c>
@@ -9362,7 +9367,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>470</v>
       </c>
@@ -9379,7 +9384,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>429</v>
       </c>
@@ -9393,7 +9398,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>430</v>
       </c>
@@ -9410,7 +9415,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>431</v>
       </c>
@@ -9427,7 +9432,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>432</v>
       </c>
@@ -9444,7 +9449,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>433</v>
       </c>
@@ -9461,7 +9466,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>434</v>
       </c>
@@ -9478,7 +9483,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>435</v>
       </c>
@@ -9495,7 +9500,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>436</v>
       </c>
@@ -9512,7 +9517,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>437</v>
       </c>
@@ -9529,7 +9534,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>438</v>
       </c>
@@ -9546,7 +9551,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>439</v>
       </c>
@@ -9563,7 +9568,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>440</v>
       </c>
@@ -9580,7 +9585,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>441</v>
       </c>
@@ -9597,7 +9602,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>442</v>
       </c>
@@ -9614,7 +9619,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>443</v>
       </c>
@@ -9631,7 +9636,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>444</v>
       </c>
@@ -9648,7 +9653,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>445</v>
       </c>
@@ -9665,7 +9670,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>446</v>
       </c>
@@ -9682,7 +9687,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>447</v>
       </c>
@@ -9699,7 +9704,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -9716,7 +9721,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>449</v>
       </c>
@@ -9733,7 +9738,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -9750,7 +9755,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>451</v>
       </c>
@@ -9767,7 +9772,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>452</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>453</v>
       </c>
@@ -9801,7 +9806,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>454</v>
       </c>
@@ -9831,14 +9836,14 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>471</v>
       </c>
@@ -9849,7 +9854,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>542</v>
       </c>
@@ -9863,7 +9868,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>543</v>
       </c>
@@ -9874,7 +9879,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>544</v>
       </c>
@@ -9885,7 +9890,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>472</v>
       </c>
@@ -9896,7 +9901,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>473</v>
       </c>
@@ -9910,7 +9915,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>545</v>
       </c>
@@ -9924,7 +9929,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>546</v>
       </c>
@@ -9941,7 +9946,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>547</v>
       </c>
@@ -9958,7 +9963,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>548</v>
       </c>
@@ -9975,7 +9980,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>549</v>
       </c>
@@ -9992,7 +9997,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>474</v>
       </c>
@@ -10009,7 +10014,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>475</v>
       </c>
@@ -10026,7 +10031,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>476</v>
       </c>
@@ -10043,7 +10048,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>477</v>
       </c>
@@ -10060,7 +10065,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>478</v>
       </c>
@@ -10077,7 +10082,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>479</v>
       </c>
@@ -10094,7 +10099,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>480</v>
       </c>
@@ -10111,7 +10116,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>481</v>
       </c>
@@ -10128,7 +10133,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>482</v>
       </c>
@@ -10145,7 +10150,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>483</v>
       </c>
@@ -10162,7 +10167,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>484</v>
       </c>
@@ -10179,7 +10184,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>485</v>
       </c>
@@ -10196,7 +10201,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>486</v>
       </c>
@@ -10213,7 +10218,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>487</v>
       </c>
@@ -10230,7 +10235,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>488</v>
       </c>
@@ -10247,7 +10252,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>489</v>
       </c>
@@ -10264,7 +10269,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>490</v>
       </c>
@@ -10278,7 +10283,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>550</v>
       </c>
@@ -10295,7 +10300,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>551</v>
       </c>
@@ -10312,7 +10317,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>491</v>
       </c>
@@ -10329,7 +10334,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>492</v>
       </c>
@@ -10346,7 +10351,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>493</v>
       </c>
@@ -10363,7 +10368,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>494</v>
       </c>
@@ -10380,7 +10385,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>495</v>
       </c>
@@ -10397,7 +10402,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>496</v>
       </c>
@@ -10414,7 +10419,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>497</v>
       </c>
@@ -10431,7 +10436,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>498</v>
       </c>
@@ -10448,7 +10453,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>562</v>
       </c>
@@ -10465,7 +10470,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>552</v>
       </c>
@@ -10479,7 +10484,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>553</v>
       </c>
@@ -10493,7 +10498,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>554</v>
       </c>
@@ -10510,7 +10515,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>555</v>
       </c>
@@ -10527,7 +10532,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>556</v>
       </c>
@@ -10544,7 +10549,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>563</v>
       </c>
@@ -10561,7 +10566,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>557</v>
       </c>
@@ -10578,7 +10583,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>558</v>
       </c>
@@ -10595,7 +10600,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>559</v>
       </c>
@@ -10612,7 +10617,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>560</v>
       </c>
@@ -10629,7 +10634,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>561</v>
       </c>
@@ -10646,7 +10651,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>499</v>
       </c>
@@ -10660,7 +10665,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>500</v>
       </c>
@@ -10677,7 +10682,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>501</v>
       </c>
@@ -10694,7 +10699,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>502</v>
       </c>
@@ -10711,7 +10716,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>503</v>
       </c>
@@ -10728,7 +10733,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>504</v>
       </c>
@@ -10745,7 +10750,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>505</v>
       </c>
@@ -10762,7 +10767,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>506</v>
       </c>
@@ -10779,7 +10784,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>507</v>
       </c>
@@ -10796,7 +10801,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>508</v>
       </c>
@@ -10813,7 +10818,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>509</v>
       </c>
@@ -10830,7 +10835,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>510</v>
       </c>
@@ -10847,7 +10852,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>511</v>
       </c>
@@ -10864,7 +10869,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>512</v>
       </c>
@@ -10881,7 +10886,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>513</v>
       </c>
@@ -10898,7 +10903,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>514</v>
       </c>
@@ -10915,7 +10920,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>515</v>
       </c>
@@ -10932,7 +10937,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>516</v>
       </c>
@@ -10949,7 +10954,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>517</v>
       </c>
@@ -10966,7 +10971,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>518</v>
       </c>
@@ -10983,7 +10988,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>519</v>
       </c>
@@ -11000,7 +11005,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>520</v>
       </c>
@@ -11017,7 +11022,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>521</v>
       </c>
@@ -11034,7 +11039,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>522</v>
       </c>
@@ -11051,7 +11056,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>523</v>
       </c>
@@ -11068,7 +11073,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>524</v>
       </c>
@@ -11085,7 +11090,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>525</v>
       </c>
@@ -11102,7 +11107,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>526</v>
       </c>
@@ -11119,7 +11124,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>527</v>
       </c>
@@ -11136,7 +11141,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>528</v>
       </c>
@@ -11153,7 +11158,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>529</v>
       </c>
@@ -11170,7 +11175,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>530</v>
       </c>
@@ -11187,7 +11192,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>531</v>
       </c>
@@ -11204,7 +11209,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>532</v>
       </c>
@@ -11221,7 +11226,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>533</v>
       </c>
@@ -11238,7 +11243,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>534</v>
       </c>
@@ -11255,7 +11260,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>535</v>
       </c>
@@ -11272,7 +11277,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>536</v>
       </c>
@@ -11289,7 +11294,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -11306,7 +11311,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>538</v>
       </c>
@@ -11323,7 +11328,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>539</v>
       </c>
@@ -11340,7 +11345,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>540</v>
       </c>
@@ -11357,7 +11362,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>541</v>
       </c>

--- a/docs/Language Waves/wave6.xlsx
+++ b/docs/Language Waves/wave6.xlsx
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,7 +2834,7 @@
         <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="D43" t="s">
         <v>88</v>
@@ -3489,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Language Waves/wave6.xlsx
+++ b/docs/Language Waves/wave6.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration\OVWMigration\docs\Language Waves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agarnepu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19140" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19140" windowHeight="7350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="en_au" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="571">
   <si>
     <t>http://www.cisco.com/web/ANZ/ordering/index.html</t>
   </si>
@@ -1737,6 +1737,15 @@
   </si>
   <si>
     <t>solutions-listing-var9</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/cisco/web/UK/products/wireless/technology.html</t>
+  </si>
+  <si>
+    <t>technology-rvar2</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CN/products/products_netsol/wireless/technology.html</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -4813,10 +4822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6346,6 +6355,23 @@
         <v>86</v>
       </c>
       <c r="E92" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>570</v>
+      </c>
+      <c r="B93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" t="s">
+        <v>569</v>
+      </c>
+      <c r="D93" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>565</v>
       </c>
     </row>
@@ -9830,10 +9856,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11379,6 +11405,23 @@
         <v>565</v>
       </c>
     </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>568</v>
+      </c>
+      <c r="B94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" t="s">
+        <v>569</v>
+      </c>
+      <c r="D94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A39" r:id="rId1"/>

--- a/docs/Language Waves/wave6.xlsx
+++ b/docs/Language Waves/wave6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agarnepu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration\OVWMigration\docs\Language Waves\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="572">
   <si>
     <t>http://www.cisco.com/web/ANZ/ordering/index.html</t>
   </si>
@@ -1746,6 +1746,9 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/CN/products/products_netsol/wireless/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CN/solutions/trends/cloud/managed-cloud-services.html</t>
   </si>
 </sst>
 </file>
@@ -4822,10 +4825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:E93"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6372,6 +6375,23 @@
         <v>86</v>
       </c>
       <c r="E93" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>571</v>
+      </c>
+      <c r="B94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" t="s">
         <v>565</v>
       </c>
     </row>
